--- a/Documentacion/FRAMEWORKS.xlsx
+++ b/Documentacion/FRAMEWORKS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>RPG -Maker</t>
   </si>
@@ -81,14 +81,52 @@
   </si>
   <si>
     <t>Comunidad</t>
+  </si>
+  <si>
+    <t>Adventure Game Studio</t>
+  </si>
+  <si>
+    <t>Angel2D</t>
+  </si>
+  <si>
+    <t>Eclipse Origins</t>
+  </si>
+  <si>
+    <t>Clickteam Fusion</t>
+  </si>
+  <si>
+    <t>Stencyl</t>
+  </si>
+  <si>
+    <t>Construct 2</t>
+  </si>
+  <si>
+    <t>GODOT</t>
+  </si>
+  <si>
+    <t>Unreal 4 2D</t>
+  </si>
+  <si>
+    <t>Gdevelop</t>
+  </si>
+  <si>
+    <t>Torque 2D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -116,11 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D10:J19"/>
+  <dimension ref="D10:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +552,9 @@
       <c r="I15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
@@ -527,7 +568,9 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -536,7 +579,9 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -545,7 +590,9 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -553,6 +600,41 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
